--- a/data/trans_orig/INDUSTRIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/INDUSTRIA-Clase-trans_orig.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Industria contaminante en Andalucia</t>
+          <t>Industria contaminante en Andalucia (tasa de respuesta: 99,49%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/INDUSTRIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/INDUSTRIA-Clase-trans_orig.xlsx
@@ -738,12 +738,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>333758</t>
+          <t>332698</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>352230</t>
+          <t>352998</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -753,12 +753,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>90,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>96,51%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -773,12 +773,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>278675</t>
+          <t>280193</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>289644</t>
+          <t>290102</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>94,74%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>97,93%</t>
+          <t>98,09%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>617537</t>
+          <t>617924</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>639541</t>
+          <t>639879</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -823,12 +823,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>93,35%</t>
+          <t>93,41%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>96,68%</t>
+          <t>96,73%</t>
         </is>
       </c>
     </row>
@@ -851,12 +851,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>7717</t>
+          <t>6719</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21960</t>
+          <t>21383</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -866,12 +866,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>5,85%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -886,12 +886,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3878</t>
+          <t>4099</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12842</t>
+          <t>12634</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -901,12 +901,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -921,12 +921,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>13747</t>
+          <t>13227</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>30662</t>
+          <t>30076</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -936,12 +936,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,55%</t>
         </is>
       </c>
     </row>
@@ -964,12 +964,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3215</t>
+          <t>3582</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17915</t>
+          <t>18869</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -979,12 +979,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>0,98%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,9%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -999,12 +999,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>677</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6379</t>
+          <t>6189</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1014,12 +1014,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,09%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1034,12 +1034,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>5375</t>
+          <t>5650</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>20602</t>
+          <t>20365</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1049,12 +1049,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -1194,12 +1194,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>301111</t>
+          <t>300921</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>316013</t>
+          <t>315671</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1209,12 +1209,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,52%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1229,12 +1229,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>233546</t>
+          <t>232770</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>247690</t>
+          <t>247393</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>90,28%</t>
+          <t>89,98%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,74%</t>
+          <t>95,63%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1264,12 +1264,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>540263</t>
+          <t>540974</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>560247</t>
+          <t>560663</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1279,12 +1279,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,71%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>96,21%</t>
         </is>
       </c>
     </row>
@@ -1307,12 +1307,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5376</t>
+          <t>5950</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>18661</t>
+          <t>19123</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1322,12 +1322,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1342,12 +1342,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7012</t>
+          <t>7004</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19263</t>
+          <t>19102</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1362,7 +1362,7 @@
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,45%</t>
+          <t>7,38%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1377,12 +1377,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>15924</t>
+          <t>14943</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>32459</t>
+          <t>31668</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1392,12 +1392,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,56%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>5,43%</t>
         </is>
       </c>
     </row>
@@ -1420,12 +1420,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>837</t>
+          <t>804</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8309</t>
+          <t>8550</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1455,12 +1455,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2191</t>
+          <t>2357</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>10244</t>
+          <t>9953</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1470,12 +1470,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,85%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1490,12 +1490,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4206</t>
+          <t>4031</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>14408</t>
+          <t>14593</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1505,12 +1505,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,72%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,5%</t>
         </is>
       </c>
     </row>
@@ -1650,12 +1650,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>433894</t>
+          <t>433743</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>471345</t>
+          <t>471022</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1665,12 +1665,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>91,46%</t>
+          <t>91,43%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>99,35%</t>
+          <t>99,28%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1685,12 +1685,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>78228</t>
+          <t>79296</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>92641</t>
+          <t>92624</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1700,12 +1700,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>81,1%</t>
+          <t>82,21%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>96,02%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1720,12 +1720,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>520690</t>
+          <t>521219</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>564437</t>
+          <t>564916</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1735,12 +1735,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>91,21%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>98,87%</t>
+          <t>98,96%</t>
         </is>
       </c>
     </row>
@@ -1763,12 +1763,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2645</t>
+          <t>2784</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32225</t>
+          <t>32016</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1778,12 +1778,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1798,12 +1798,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2170</t>
+          <t>2375</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15576</t>
+          <t>15294</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1813,12 +1813,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>15,86%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1833,12 +1833,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>5076</t>
+          <t>4919</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>40396</t>
+          <t>40313</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1848,12 +1848,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,08%</t>
+          <t>7,06%</t>
         </is>
       </c>
     </row>
@@ -1881,7 +1881,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12126</t>
+          <t>12323</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1911,12 +1911,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>566</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>5210</t>
+          <t>5159</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1931,7 +1931,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,4%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1946,12 +1946,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>818</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>14217</t>
+          <t>14465</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1961,12 +1961,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,53%</t>
         </is>
       </c>
     </row>
@@ -2106,12 +2106,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>489049</t>
+          <t>488933</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>512567</t>
+          <t>511471</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2121,12 +2121,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>91,66%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>95,86%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2141,12 +2141,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>589927</t>
+          <t>589946</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>625807</t>
+          <t>625148</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2161,7 +2161,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>98,32%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2176,12 +2176,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1089424</t>
+          <t>1090300</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1136212</t>
+          <t>1137364</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2191,12 +2191,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>93,18%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>97,11%</t>
+          <t>97,2%</t>
         </is>
       </c>
     </row>
@@ -2219,12 +2219,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15701</t>
+          <t>15976</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>36544</t>
+          <t>36448</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2234,12 +2234,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>2,99%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2254,12 +2254,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6503</t>
+          <t>6193</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30931</t>
+          <t>30562</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2269,12 +2269,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>1,02%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,86%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2289,12 +2289,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>24559</t>
+          <t>23230</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>58743</t>
+          <t>59207</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2304,12 +2304,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,06%</t>
         </is>
       </c>
     </row>
@@ -2332,12 +2332,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2457</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>14543</t>
+          <t>15237</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2347,12 +2347,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,56%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2367,12 +2367,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3207</t>
+          <t>3033</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>19516</t>
+          <t>20030</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2382,12 +2382,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2402,12 +2402,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>8829</t>
+          <t>9299</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>28382</t>
+          <t>28549</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2417,12 +2417,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,44%</t>
         </is>
       </c>
     </row>
@@ -2562,12 +2562,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>191497</t>
+          <t>191111</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>205732</t>
+          <t>204898</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2577,12 +2577,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>90,66%</t>
+          <t>90,48%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,4%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2597,12 +2597,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>391097</t>
+          <t>390839</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>410845</t>
+          <t>410383</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2612,12 +2612,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,44%</t>
+          <t>97,33%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2632,12 +2632,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>589302</t>
+          <t>587689</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>612482</t>
+          <t>611615</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2647,12 +2647,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>93,12%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,78%</t>
+          <t>96,64%</t>
         </is>
       </c>
     </row>
@@ -2675,12 +2675,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1302</t>
+          <t>1506</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9868</t>
+          <t>9599</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2690,12 +2690,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,71%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2710,12 +2710,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>8725</t>
+          <t>8841</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>25030</t>
+          <t>25457</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2725,12 +2725,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>6,04%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2745,12 +2745,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>13237</t>
+          <t>12739</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>30810</t>
+          <t>30656</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2760,12 +2760,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>4,84%</t>
         </is>
       </c>
     </row>
@@ -2788,12 +2788,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3032</t>
+          <t>2410</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>15313</t>
+          <t>14762</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2803,12 +2803,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>6,99%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2823,12 +2823,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1450</t>
+          <t>1413</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>9107</t>
+          <t>8490</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2843,7 +2843,7 @@
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2858,12 +2858,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>6338</t>
+          <t>5987</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>20495</t>
+          <t>20269</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2873,12 +2873,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>3,2%</t>
         </is>
       </c>
     </row>
@@ -3018,12 +3018,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>134990</t>
+          <t>135852</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>161433</t>
+          <t>161417</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3033,12 +3033,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>80,95%</t>
+          <t>81,47%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>96,81%</t>
+          <t>96,8%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3053,12 +3053,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>451048</t>
+          <t>450254</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>470800</t>
+          <t>470405</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3068,12 +3068,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>92,04%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>96,07%</t>
+          <t>95,99%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3088,12 +3088,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>596942</t>
+          <t>596956</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>629076</t>
+          <t>628204</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3103,12 +3103,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>90,88%</t>
+          <t>90,89%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>95,78%</t>
+          <t>95,64%</t>
         </is>
       </c>
     </row>
@@ -3131,12 +3131,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3337</t>
+          <t>3019</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>25999</t>
+          <t>25217</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3146,12 +3146,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3166,12 +3166,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>13985</t>
+          <t>14148</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>28184</t>
+          <t>29481</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3181,12 +3181,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>2,89%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3201,12 +3201,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>19796</t>
+          <t>20691</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>47585</t>
+          <t>46829</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3216,12 +3216,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,01%</t>
+          <t>3,15%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>7,13%</t>
         </is>
       </c>
     </row>
@@ -3249,7 +3249,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>23552</t>
+          <t>25906</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>14,12%</t>
+          <t>15,53%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3279,12 +3279,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2340</t>
+          <t>2951</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>16436</t>
+          <t>16519</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3294,12 +3294,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>3,35%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3314,12 +3314,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>4202</t>
+          <t>3939</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>25512</t>
+          <t>26754</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3329,12 +3329,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,6%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,07%</t>
         </is>
       </c>
     </row>
@@ -3474,12 +3474,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1938096</t>
+          <t>1935736</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2006124</t>
+          <t>2002167</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3489,12 +3489,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>93,37%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>96,45%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3509,12 +3509,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>2064035</t>
+          <t>2064681</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>2119050</t>
+          <t>2121671</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3524,12 +3524,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>93,86%</t>
+          <t>93,89%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>96,48%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3544,12 +3544,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>4014206</t>
+          <t>4014887</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>4099225</t>
+          <t>4105406</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3559,12 +3559,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>93,9%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>95,89%</t>
+          <t>96,03%</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>46826</t>
+          <t>48365</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>99115</t>
+          <t>99283</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3602,12 +3602,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,26%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3622,12 +3622,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>55685</t>
+          <t>55263</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>98399</t>
+          <t>98852</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3637,12 +3637,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>4,5%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3657,12 +3657,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>122803</t>
+          <t>119535</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>188995</t>
+          <t>186478</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3672,12 +3672,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,8%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>4,42%</t>
+          <t>4,36%</t>
         </is>
       </c>
     </row>
@@ -3700,12 +3700,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>19250</t>
+          <t>20220</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>53394</t>
+          <t>50600</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3715,12 +3715,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>2,57%</t>
+          <t>2,44%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3735,12 +3735,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>20658</t>
+          <t>20001</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>45024</t>
+          <t>44122</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3750,12 +3750,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,94%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>2,05%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3770,12 +3770,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>46391</t>
+          <t>46116</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>88161</t>
+          <t>85074</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3785,12 +3785,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,99%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/INDUSTRIA-Clase-trans_orig.xlsx
+++ b/data/trans_orig/INDUSTRIA-Clase-trans_orig.xlsx
@@ -733,32 +733,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>344669</t>
+          <t>372148</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>332698</t>
+          <t>359657</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>352998</t>
+          <t>380922</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>94,23%</t>
+          <t>94,35%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,96%</t>
+          <t>91,18%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>96,51%</t>
+          <t>96,58%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>285659</t>
+          <t>311103</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>280193</t>
+          <t>305367</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>290102</t>
+          <t>315834</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -788,12 +788,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>98,09%</t>
+          <t>98,06%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -803,32 +803,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>630328</t>
+          <t>683250</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>617924</t>
+          <t>670061</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>639879</t>
+          <t>693265</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>95,28%</t>
+          <t>95,36%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>93,41%</t>
+          <t>93,52%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>96,73%</t>
+          <t>96,75%</t>
         </is>
       </c>
     </row>
@@ -846,32 +846,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12962</t>
+          <t>13655</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>6719</t>
+          <t>7238</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>21383</t>
+          <t>22111</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,54%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,61%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -881,22 +881,22 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7371</t>
+          <t>8064</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4099</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12634</t>
+          <t>13586</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,49%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
@@ -906,7 +906,7 @@
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -916,32 +916,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>20333</t>
+          <t>21719</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>13227</t>
+          <t>14150</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>30076</t>
+          <t>31646</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>3,07%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,42%</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8142</t>
+          <t>8623</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3582</t>
+          <t>3820</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>18869</t>
+          <t>19903</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,16%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -994,32 +994,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2725</t>
+          <t>2927</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>677</t>
+          <t>715</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6189</t>
+          <t>6664</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1029,27 +1029,27 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>10867</t>
+          <t>11550</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>5650</t>
+          <t>6032</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>20365</t>
+          <t>22048</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>1,64%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,85%</t>
+          <t>0,84%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
@@ -1072,17 +1072,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>365773</t>
+          <t>394426</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>365773</t>
+          <t>394426</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>365773</t>
+          <t>394426</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1107,17 +1107,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>295754</t>
+          <t>322094</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>295754</t>
+          <t>322094</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>295754</t>
+          <t>322094</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1142,17 +1142,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>661527</t>
+          <t>716519</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>661527</t>
+          <t>716519</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>661527</t>
+          <t>716519</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1189,27 +1189,27 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>310042</t>
+          <t>329667</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>300921</t>
+          <t>320108</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>315671</t>
+          <t>335447</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>95,68%</t>
+          <t>95,74%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>92,86%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
@@ -1224,32 +1224,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>241739</t>
+          <t>267445</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>232770</t>
+          <t>257748</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>247393</t>
+          <t>273254</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>93,44%</t>
+          <t>93,68%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,98%</t>
+          <t>90,28%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,63%</t>
+          <t>95,71%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1259,32 +1259,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>551781</t>
+          <t>597112</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>540974</t>
+          <t>585956</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>560663</t>
+          <t>606576</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>94,8%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,83%</t>
+          <t>93,03%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>96,31%</t>
         </is>
       </c>
     </row>
@@ -1302,32 +1302,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>10920</t>
+          <t>11492</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>5950</t>
+          <t>6246</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>19123</t>
+          <t>19998</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,34%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1337,32 +1337,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>11726</t>
+          <t>12820</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>7004</t>
+          <t>7634</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>19102</t>
+          <t>20628</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>7,38%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1372,32 +1372,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>22646</t>
+          <t>24312</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>14943</t>
+          <t>16228</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>31668</t>
+          <t>33979</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>5,43%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -1415,32 +1415,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3085</t>
+          <t>3188</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>804</t>
+          <t>795</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8550</t>
+          <t>8951</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,64%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1450,32 +1450,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>5236</t>
+          <t>5234</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2357</t>
+          <t>2418</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9953</t>
+          <t>10188</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>1,83%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1485,32 +1485,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>8321</t>
+          <t>8422</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>4031</t>
+          <t>4064</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>14593</t>
+          <t>15083</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,39%</t>
         </is>
       </c>
     </row>
@@ -1528,17 +1528,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1563,17 +1563,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>258701</t>
+          <t>285499</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>258701</t>
+          <t>285499</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>258701</t>
+          <t>285499</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1598,17 +1598,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>582748</t>
+          <t>629846</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>582748</t>
+          <t>629846</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>582748</t>
+          <t>629846</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1645,32 +1645,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>457188</t>
+          <t>235671</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>433743</t>
+          <t>223584</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>471022</t>
+          <t>244324</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>96,37%</t>
+          <t>90,77%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>91,43%</t>
+          <t>86,12%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>99,28%</t>
+          <t>94,11%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1680,27 +1680,27 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>88468</t>
+          <t>101183</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>79296</t>
+          <t>90669</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>92624</t>
+          <t>105781</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>91,72%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>82,21%</t>
+          <t>82,31%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
@@ -1715,32 +1715,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>545657</t>
+          <t>336854</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>521219</t>
+          <t>322967</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>564916</t>
+          <t>348699</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>95,58%</t>
+          <t>91,09%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>87,34%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>98,96%</t>
+          <t>94,3%</t>
         </is>
       </c>
     </row>
@@ -1758,32 +1758,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13476</t>
+          <t>18775</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>2784</t>
+          <t>10842</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>32016</t>
+          <t>28966</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,84%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>6,75%</t>
+          <t>11,16%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1793,32 +1793,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6935</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>2375</t>
+          <t>2653</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15294</t>
+          <t>17520</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>6,3%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,46%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>15,86%</t>
+          <t>15,9%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1828,32 +1828,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>19607</t>
+          <t>25709</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>4919</t>
+          <t>15204</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>40313</t>
+          <t>39083</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,43%</t>
+          <t>6,95%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,06%</t>
+          <t>10,57%</t>
         </is>
       </c>
     </row>
@@ -1871,32 +1871,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>3754</t>
+          <t>5176</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1378</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>12323</t>
+          <t>12425</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,53%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>4,79%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1906,32 +1906,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1861</t>
+          <t>2043</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>566</t>
+          <t>641</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>5159</t>
+          <t>5536</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,85%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,59%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1941,32 +1941,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>5616</t>
+          <t>7220</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>818</t>
+          <t>3048</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>14465</t>
+          <t>14631</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>0,82%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>3,96%</t>
         </is>
       </c>
     </row>
@@ -1984,17 +1984,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>474419</t>
+          <t>259622</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>474419</t>
+          <t>259622</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>474419</t>
+          <t>259622</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2019,17 +2019,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>96460</t>
+          <t>110161</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>96460</t>
+          <t>110161</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>96460</t>
+          <t>110161</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2054,17 +2054,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>570879</t>
+          <t>369783</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>570879</t>
+          <t>369783</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>570879</t>
+          <t>369783</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2101,32 +2101,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>502356</t>
+          <t>571212</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>488933</t>
+          <t>559039</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>511471</t>
+          <t>582481</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>94,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>91,64%</t>
+          <t>92,19%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>95,86%</t>
+          <t>96,06%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2136,32 +2136,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>608341</t>
+          <t>458728</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>589946</t>
+          <t>447861</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>625148</t>
+          <t>467141</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>95,57%</t>
+          <t>93,61%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>92,68%</t>
+          <t>91,39%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>98,21%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2171,32 +2171,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1110696</t>
+          <t>1029940</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1090300</t>
+          <t>1012413</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1137364</t>
+          <t>1044088</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>94,93%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>93,18%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>95,22%</t>
         </is>
       </c>
     </row>
@@ -2214,32 +2214,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>24208</t>
+          <t>26762</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>15976</t>
+          <t>17631</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>36448</t>
+          <t>39370</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2249,32 +2249,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>17892</t>
+          <t>19514</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>6193</t>
+          <t>12802</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>30562</t>
+          <t>27263</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,8%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2284,32 +2284,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>42100</t>
+          <t>46276</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>23230</t>
+          <t>34825</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>59207</t>
+          <t>61386</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>3,18%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>5,06%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -2327,32 +2327,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6983</t>
+          <t>8417</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>3547</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>15237</t>
+          <t>16741</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2362,32 +2362,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>10295</t>
+          <t>11812</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3033</t>
+          <t>6505</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>20030</t>
+          <t>20222</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>2,41%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>1,33%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2397,32 +2397,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>17278</t>
+          <t>20229</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>9299</t>
+          <t>13348</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>28549</t>
+          <t>31559</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>1,48%</t>
+          <t>1,84%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>1,22%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,88%</t>
         </is>
       </c>
     </row>
@@ -2440,17 +2440,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>533546</t>
+          <t>606391</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>533546</t>
+          <t>606391</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>533546</t>
+          <t>606391</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2475,17 +2475,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>636528</t>
+          <t>490054</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>636528</t>
+          <t>490054</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>636528</t>
+          <t>490054</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2510,17 +2510,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1170074</t>
+          <t>1096445</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1170074</t>
+          <t>1096445</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1170074</t>
+          <t>1096445</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2557,32 +2557,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>199344</t>
+          <t>240732</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>191111</t>
+          <t>232139</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>204898</t>
+          <t>246690</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>94,38%</t>
+          <t>95,02%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>90,48%</t>
+          <t>91,63%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>97,37%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2592,32 +2592,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>401113</t>
+          <t>381118</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>390839</t>
+          <t>372318</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>410383</t>
+          <t>387699</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>94,47%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>92,69%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>97,33%</t>
+          <t>96,1%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2627,22 +2627,22 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>600456</t>
+          <t>621851</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>587689</t>
+          <t>609873</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>611615</t>
+          <t>631589</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>94,88%</t>
+          <t>94,68%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
@@ -2652,7 +2652,7 @@
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>96,17%</t>
         </is>
       </c>
     </row>
@@ -2670,32 +2670,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4414</t>
+          <t>4608</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>1506</t>
+          <t>1654</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>9599</t>
+          <t>9968</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,65%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,54%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2705,32 +2705,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>16380</t>
+          <t>18118</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>8841</t>
+          <t>11627</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>25457</t>
+          <t>26762</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>3,88%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2740,32 +2740,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>20794</t>
+          <t>22726</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>12739</t>
+          <t>15420</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>30656</t>
+          <t>31933</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>3,29%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,35%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>4,86%</t>
         </is>
       </c>
     </row>
@@ -2783,32 +2783,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>7464</t>
+          <t>8001</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2870</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>14762</t>
+          <t>16239</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>3,53%</t>
+          <t>3,16%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2818,32 +2818,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>4155</t>
+          <t>4195</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1413</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>8490</t>
+          <t>8684</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2853,32 +2853,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>11619</t>
+          <t>12197</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>5987</t>
+          <t>6747</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>20269</t>
+          <t>21531</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>1,84%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,95%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,28%</t>
         </is>
       </c>
     </row>
@@ -2896,17 +2896,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>211222</t>
+          <t>253341</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2931,17 +2931,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>421648</t>
+          <t>403432</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>421648</t>
+          <t>403432</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>421648</t>
+          <t>403432</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2966,17 +2966,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>632870</t>
+          <t>656774</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>632870</t>
+          <t>656774</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>632870</t>
+          <t>656774</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3013,32 +3013,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>152934</t>
+          <t>154752</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>135852</t>
+          <t>139123</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>161417</t>
+          <t>163565</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>91,71%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>81,47%</t>
+          <t>82,08%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>96,8%</t>
+          <t>96,5%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3048,32 +3048,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>462473</t>
+          <t>513980</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>450254</t>
+          <t>499723</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>470405</t>
+          <t>523967</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>94,37%</t>
+          <t>93,97%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>91,37%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>95,99%</t>
+          <t>95,8%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3083,32 +3083,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>615408</t>
+          <t>668731</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>596956</t>
+          <t>650556</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>628204</t>
+          <t>682157</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>93,34%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>90,8%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>95,64%</t>
+          <t>95,21%</t>
         </is>
       </c>
     </row>
@@ -3126,32 +3126,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>9955</t>
+          <t>11330</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3019</t>
+          <t>4144</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>25217</t>
+          <t>25879</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>6,68%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>1,81%</t>
+          <t>2,45%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>15,27%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3161,32 +3161,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>20409</t>
+          <t>25631</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>14148</t>
+          <t>16978</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>29481</t>
+          <t>37436</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>3,1%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>6,02%</t>
+          <t>6,84%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3196,32 +3196,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>30364</t>
+          <t>36961</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>20691</t>
+          <t>25697</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>46829</t>
+          <t>53044</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>7,4%</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>3871</t>
+          <t>3415</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -3249,12 +3249,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>25906</t>
+          <t>22680</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -3264,7 +3264,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>15,53%</t>
+          <t>13,38%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3274,32 +3274,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>7168</t>
+          <t>7335</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2951</t>
+          <t>3142</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>16519</t>
+          <t>16676</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,34%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3309,32 +3309,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>11039</t>
+          <t>10750</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3939</t>
+          <t>3843</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>26754</t>
+          <t>23216</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>1,68%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,24%</t>
         </is>
       </c>
     </row>
@@ -3352,17 +3352,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3387,17 +3387,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>490050</t>
+          <t>546946</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>490050</t>
+          <t>546946</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>490050</t>
+          <t>546946</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3422,17 +3422,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>656812</t>
+          <t>716442</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>656812</t>
+          <t>716442</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>656812</t>
+          <t>716442</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3469,102 +3469,102 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1966532</t>
+          <t>1904182</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1935736</t>
+          <t>1875987</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>2002167</t>
+          <t>1925005</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>94,74%</t>
+          <t>93,91%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
+          <t>92,52%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>94,94%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>2780</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>2033556</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>2011641</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>2052579</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>94,23%</t>
+        </is>
+      </c>
+      <c r="O28" s="2" t="inlineStr">
+        <is>
+          <t>93,21%</t>
+        </is>
+      </c>
+      <c r="P28" s="2" t="inlineStr">
+        <is>
+          <t>95,11%</t>
+        </is>
+      </c>
+      <c r="Q28" s="2" t="inlineStr">
+        <is>
+          <t>4533</t>
+        </is>
+      </c>
+      <c r="R28" s="2" t="inlineStr">
+        <is>
+          <t>3937738</t>
+        </is>
+      </c>
+      <c r="S28" s="2" t="inlineStr">
+        <is>
+          <t>3903375</t>
+        </is>
+      </c>
+      <c r="T28" s="2" t="inlineStr">
+        <is>
+          <t>3968339</t>
+        </is>
+      </c>
+      <c r="U28" s="2" t="inlineStr">
+        <is>
+          <t>94,07%</t>
+        </is>
+      </c>
+      <c r="V28" s="2" t="inlineStr">
+        <is>
           <t>93,25%</t>
         </is>
       </c>
-      <c r="I28" s="2" t="inlineStr">
-        <is>
-          <t>96,45%</t>
-        </is>
-      </c>
-      <c r="J28" s="2" t="inlineStr">
-        <is>
-          <t>2780</t>
-        </is>
-      </c>
-      <c r="K28" s="2" t="inlineStr">
-        <is>
-          <t>2087792</t>
-        </is>
-      </c>
-      <c r="L28" s="2" t="inlineStr">
-        <is>
-          <t>2064681</t>
-        </is>
-      </c>
-      <c r="M28" s="2" t="inlineStr">
-        <is>
-          <t>2121671</t>
-        </is>
-      </c>
-      <c r="N28" s="2" t="inlineStr">
-        <is>
-          <t>94,94%</t>
-        </is>
-      </c>
-      <c r="O28" s="2" t="inlineStr">
-        <is>
-          <t>93,89%</t>
-        </is>
-      </c>
-      <c r="P28" s="2" t="inlineStr">
-        <is>
-          <t>96,48%</t>
-        </is>
-      </c>
-      <c r="Q28" s="2" t="inlineStr">
-        <is>
-          <t>4533</t>
-        </is>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>4054325</t>
-        </is>
-      </c>
-      <c r="S28" s="2" t="inlineStr">
-        <is>
-          <t>4014887</t>
-        </is>
-      </c>
-      <c r="T28" s="2" t="inlineStr">
-        <is>
-          <t>4105406</t>
-        </is>
-      </c>
-      <c r="U28" s="2" t="inlineStr">
-        <is>
-          <t>94,84%</t>
-        </is>
-      </c>
-      <c r="V28" s="2" t="inlineStr">
-        <is>
-          <t>93,92%</t>
-        </is>
-      </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>96,03%</t>
+          <t>94,8%</t>
         </is>
       </c>
     </row>
@@ -3582,32 +3582,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>75936</t>
+          <t>86621</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>48365</t>
+          <t>69388</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>99283</t>
+          <t>111206</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>5,48%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3617,32 +3617,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>79908</t>
+          <t>91083</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>55263</t>
+          <t>74278</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>98852</t>
+          <t>109164</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>3,63%</t>
+          <t>4,22%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3652,32 +3652,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>155844</t>
+          <t>177704</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>119535</t>
+          <t>152420</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>186478</t>
+          <t>206101</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>4,25%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>4,36%</t>
+          <t>4,92%</t>
         </is>
       </c>
     </row>
@@ -3695,32 +3695,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>33300</t>
+          <t>36821</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>20220</t>
+          <t>25054</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>50600</t>
+          <t>53585</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>1,6%</t>
+          <t>1,82%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>2,44%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3730,32 +3730,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>31440</t>
+          <t>33546</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>20001</t>
+          <t>24154</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>44122</t>
+          <t>46044</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,55%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3765,32 +3765,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>64740</t>
+          <t>70367</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>46116</t>
+          <t>53517</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>85074</t>
+          <t>89311</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>1,51%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>1,99%</t>
+          <t>2,13%</t>
         </is>
       </c>
     </row>
@@ -3808,17 +3808,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2075768</t>
+          <t>2027624</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2075768</t>
+          <t>2027624</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2075768</t>
+          <t>2027624</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3843,17 +3843,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2199141</t>
+          <t>2158185</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>2199141</t>
+          <t>2158185</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>2199141</t>
+          <t>2158185</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3878,17 +3878,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>4274909</t>
+          <t>4185809</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>4274909</t>
+          <t>4185809</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>4274909</t>
+          <t>4185809</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
